--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/148.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/148.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1402838438982772</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.426017167272446</v>
+        <v>-2.533680975052689</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2676481740167204</v>
+        <v>-0.2276026121434732</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01125093976672533</v>
+        <v>-0.001004272397357953</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1039403947543151</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.573292883324769</v>
+        <v>-2.653026593554689</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3227441385094028</v>
+        <v>-0.2769384857649468</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.01721474414396784</v>
+        <v>-0.01846142200724087</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.06659788299868151</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.752030137645787</v>
+        <v>-2.837770956620999</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2330174879116425</v>
+        <v>-0.2145905644257301</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01585889047955691</v>
+        <v>-0.0005931858612297625</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.0343050360129988</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.895918354259452</v>
+        <v>-3.013240255956001</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1249011189892515</v>
+        <v>-0.1366262340790561</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.00919916661014486</v>
+        <v>0.009555894199857922</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.008453767163035855</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.950204954014089</v>
+        <v>-3.147030320885086</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1144751349409202</v>
+        <v>-0.1100891953544249</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.04450137538032246</v>
+        <v>-0.005258469117675657</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.01200189917263973</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.680524867265875</v>
+        <v>-2.967267484946116</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008354960387340996</v>
+        <v>-0.02376468229156523</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002410063551077675</v>
+        <v>0.02814139706172474</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.03153505566966103</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.441217610378361</v>
+        <v>-2.726187188651295</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01140402985658909</v>
+        <v>-0.05392221015337296</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01181321062450248</v>
+        <v>0.05221618601432409</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.05327673686766503</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.912427972130653</v>
+        <v>-2.21242782564069</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01675730363640679</v>
+        <v>-0.09993035656250922</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01548066365378856</v>
+        <v>0.06455122178087681</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.0786379353594394</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.417298636191316</v>
+        <v>-1.7379095391307</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.06374437273172368</v>
+        <v>-0.1567963108591144</v>
       </c>
       <c r="G10" t="n">
-        <v>0.103831943125482</v>
+        <v>0.1345457186444839</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1079450570422283</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.8801152695902015</v>
+        <v>-1.17990287070473</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1654486455794623</v>
+        <v>-0.2611183632514557</v>
       </c>
       <c r="G11" t="n">
-        <v>0.186887281360972</v>
+        <v>0.2211672630769199</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1414393685999643</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.3226361825496183</v>
+        <v>-0.6250153366196495</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4881948808081414</v>
+        <v>-0.6066329373431398</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2700578946043675</v>
+        <v>0.2884409038015539</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1800812030810701</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1707146246963205</v>
+        <v>-0.09581644159784355</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7033504987377863</v>
+        <v>-0.8975827878515892</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3469871895626</v>
+        <v>0.3559816897826036</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2264993371430509</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8211108573947331</v>
+        <v>0.5903132137892074</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9550604925869727</v>
+        <v>-1.167901461548359</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5735397852579591</v>
+        <v>0.56815113607889</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.284494350530073</v>
       </c>
       <c r="E15" t="n">
-        <v>1.280129839667201</v>
+        <v>1.071815701968639</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.271170180931956</v>
+        <v>-1.492971494555448</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6298726688830865</v>
+        <v>0.6344257267350107</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3581266768190224</v>
       </c>
       <c r="E16" t="n">
-        <v>1.845636702655142</v>
+        <v>1.632402334857253</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.491554648823362</v>
+        <v>-1.73960328885003</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6526550359216567</v>
+        <v>0.6942162506766228</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4490626375275603</v>
       </c>
       <c r="E17" t="n">
-        <v>2.300175207636218</v>
+        <v>2.133258216030577</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.847562908158497</v>
+        <v>-2.107648332740787</v>
       </c>
       <c r="G17" t="n">
-        <v>0.693787476440869</v>
+        <v>0.7354035840567424</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.554250534988694</v>
       </c>
       <c r="E18" t="n">
-        <v>2.601025900490318</v>
+        <v>2.467993662002093</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.195350046691744</v>
+        <v>-2.437666652198333</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8524644397036437</v>
+        <v>0.9253463010509761</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6678137672973854</v>
       </c>
       <c r="E19" t="n">
-        <v>2.679031095522335</v>
+        <v>2.581692634878758</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.556691452424363</v>
+        <v>-2.788525351259684</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9196551312162401</v>
+        <v>1.007143372930335</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7837056618599252</v>
       </c>
       <c r="E20" t="n">
-        <v>2.950060326807515</v>
+        <v>2.873407935836527</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.839823949618933</v>
+        <v>-3.105007091217484</v>
       </c>
       <c r="G20" t="n">
-        <v>1.033051583437239</v>
+        <v>1.126289547371038</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8959179904718675</v>
       </c>
       <c r="E21" t="n">
-        <v>3.208786238201335</v>
+        <v>3.157468732301107</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.14980728972632</v>
+        <v>-3.408126688989087</v>
       </c>
       <c r="G21" t="n">
-        <v>1.187185247578918</v>
+        <v>1.316375595724307</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.999641877895199</v>
       </c>
       <c r="E22" t="n">
-        <v>3.301629583457278</v>
+        <v>3.289222577050869</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.389098383715901</v>
+        <v>-3.646235451746791</v>
       </c>
       <c r="G22" t="n">
-        <v>1.147508687715103</v>
+        <v>1.314662938463999</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.090564767222598</v>
       </c>
       <c r="E23" t="n">
-        <v>3.402716616580147</v>
+        <v>3.40438535955173</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.644602999055476</v>
+        <v>-3.876736673903418</v>
       </c>
       <c r="G23" t="n">
-        <v>1.34167083595108</v>
+        <v>1.485603576774147</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.164265020196455</v>
       </c>
       <c r="E24" t="n">
-        <v>3.405227050085642</v>
+        <v>3.44358252176362</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.764458511243236</v>
+        <v>-4.024071857221724</v>
       </c>
       <c r="G24" t="n">
-        <v>1.383160689986866</v>
+        <v>1.520256829944264</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.217867248528112</v>
       </c>
       <c r="E25" t="n">
-        <v>3.426059500720649</v>
+        <v>3.482173422822824</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.823566228987229</v>
+        <v>-4.063122943431534</v>
       </c>
       <c r="G25" t="n">
-        <v>1.425400136534376</v>
+        <v>1.552508215489348</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.249399864125592</v>
       </c>
       <c r="E26" t="n">
-        <v>3.176293324068259</v>
+        <v>3.296783153759837</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.821704141161117</v>
+        <v>-4.078106254776526</v>
       </c>
       <c r="G26" t="n">
-        <v>1.409382399721619</v>
+        <v>1.520444075592026</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.258423396438406</v>
       </c>
       <c r="E27" t="n">
-        <v>3.210203693854097</v>
+        <v>3.385593703501122</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.758164129859196</v>
+        <v>-4.015361275076747</v>
       </c>
       <c r="G27" t="n">
-        <v>1.356791379448341</v>
+        <v>1.464230736419541</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.248096925105249</v>
       </c>
       <c r="E28" t="n">
-        <v>3.047640316039084</v>
+        <v>3.246719644771003</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.631541852723254</v>
+        <v>-3.876708312591949</v>
       </c>
       <c r="G28" t="n">
-        <v>1.265598479543678</v>
+        <v>1.393601922052116</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.221706392348861</v>
       </c>
       <c r="E29" t="n">
-        <v>2.808775861562888</v>
+        <v>3.064144769551886</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.565215723769948</v>
+        <v>-3.847227491720993</v>
       </c>
       <c r="G29" t="n">
-        <v>1.243293680395002</v>
+        <v>1.367060003962071</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.183854617493174</v>
       </c>
       <c r="E30" t="n">
-        <v>2.605467342858398</v>
+        <v>2.882916599187029</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.275332624525131</v>
+        <v>-3.588450346990327</v>
       </c>
       <c r="G30" t="n">
-        <v>1.106282929332348</v>
+        <v>1.247872964836026</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.138068670427852</v>
       </c>
       <c r="E31" t="n">
-        <v>2.453023768911988</v>
+        <v>2.747732560551236</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.252713106307253</v>
+        <v>-3.560027128572853</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9202479741140391</v>
+        <v>1.07874562069785</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.086726449534065</v>
       </c>
       <c r="E32" t="n">
-        <v>2.171438030553652</v>
+        <v>2.51296433334008</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.110986143611645</v>
+        <v>-3.437020156248334</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8854928641909046</v>
+        <v>1.04764515546979</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.03033094880804</v>
       </c>
       <c r="E33" t="n">
-        <v>1.885926232799088</v>
+        <v>2.226166212878255</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.034276115136703</v>
+        <v>-3.365502382494549</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7122272082609931</v>
+        <v>0.870349143707927</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9697758772290823</v>
       </c>
       <c r="E34" t="n">
-        <v>1.652024702869592</v>
+        <v>1.988911339067998</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.743302782682199</v>
+        <v>-3.126063992661534</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5784368383715693</v>
+        <v>0.7462083288453344</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9055595812897683</v>
       </c>
       <c r="E35" t="n">
-        <v>1.492490191135309</v>
+        <v>1.79821171051392</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.665687326962625</v>
+        <v>-3.043611561015009</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5610126244782307</v>
+        <v>0.7135787924806667</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8390156660364224</v>
       </c>
       <c r="E36" t="n">
-        <v>1.289950782404198</v>
+        <v>1.599347683780892</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.429011267874602</v>
+        <v>-2.817875344145477</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4434418751455682</v>
+        <v>0.6062662990102297</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7729862622726935</v>
       </c>
       <c r="E37" t="n">
-        <v>1.047770189208523</v>
+        <v>1.330048797455645</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.379987673639623</v>
+        <v>-2.763849790440488</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4515099058575914</v>
+        <v>0.6108486330546379</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.708103354491844</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8226088225768263</v>
+        <v>1.116224026442665</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.238215881774274</v>
+        <v>-2.658469525673989</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4222135859913519</v>
+        <v>0.5829441521727374</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6455053946533996</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6980209358581773</v>
+        <v>0.9602886566218725</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.117919396937225</v>
+        <v>-2.52587094078693</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2919101326108969</v>
+        <v>0.4557153089237693</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5854865454899719</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4761305738158803</v>
+        <v>0.7226324550063149</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.106718813629423</v>
+        <v>-2.492068526960876</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2199693788677867</v>
+        <v>0.3863703775808989</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5268992728929583</v>
       </c>
       <c r="E41" t="n">
-        <v>0.238938521835328</v>
+        <v>0.4631636602282166</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.986369265693496</v>
+        <v>-2.373398090648037</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2349661084676679</v>
+        <v>0.3777430496082976</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.468856324516275</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.003140214607329652</v>
+        <v>0.1942166981334534</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.995857191740989</v>
+        <v>-2.360242101650581</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2367916010531749</v>
+        <v>0.3715413761671233</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4104434695221336</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.08939458679236326</v>
+        <v>0.06498914482678192</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.884727204754786</v>
+        <v>-2.253426083611017</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1546029600993438</v>
+        <v>0.2901096467731366</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3515056655755917</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.2592105313745878</v>
+        <v>-0.1298963693318181</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.822117017524568</v>
+        <v>-2.180250240497492</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1712806310843427</v>
+        <v>0.3015615173997581</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2916743805853678</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.2971909018363661</v>
+        <v>-0.1692368629027445</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.842356625261775</v>
+        <v>-2.161105440375048</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1480804683822001</v>
+        <v>0.267296783700729</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2314251011932299</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.4324414218259247</v>
+        <v>-0.3272685300895198</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.855438203936667</v>
+        <v>-2.17019203861724</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05145927445447974</v>
+        <v>0.1652863306732628</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1718341039162523</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.5035441445591831</v>
+        <v>-0.4220117782535329</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.811864860869109</v>
+        <v>-2.111478634590765</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03455776258111432</v>
+        <v>0.1598281505370444</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1141003278739644</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.461861555589544</v>
+        <v>-0.4219489564238278</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.710940676566931</v>
+        <v>-2.004779721321136</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01741418820526445</v>
+        <v>0.09145909227697088</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.05916880170909372</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.5417044416206021</v>
+        <v>-0.5107674351339103</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.638531503744079</v>
+        <v>-1.914024744462379</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.02679720789635658</v>
+        <v>0.07523032291005856</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.007719143385873231</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.5818231939750591</v>
+        <v>-0.5582887947420585</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.611970068192378</v>
+        <v>-1.871020457386227</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.09372136407321398</v>
+        <v>0.02586212349271725</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.04018441113987253</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.6431909727867416</v>
+        <v>-0.6158311510691773</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.454551981206411</v>
+        <v>-1.747712184247395</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.08063002666749366</v>
+        <v>0.02512716907723584</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.0843892187571449</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.7498276741473419</v>
+        <v>-0.730123576764319</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.440797660025065</v>
+        <v>-1.726955973696982</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1630589763679635</v>
+        <v>-0.04529854170483216</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1252127047563951</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.7943470041845361</v>
+        <v>-0.799491685092906</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.401018633487557</v>
+        <v>-1.671639827839994</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1457921220092259</v>
+        <v>-0.04061313106605358</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.162840050251752</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.8853636370136185</v>
+        <v>-0.8902064071869982</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.364688708377059</v>
+        <v>-1.64061316301382</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2588726353196694</v>
+        <v>-0.1417270006987001</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1977648005749513</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.8783800452648532</v>
+        <v>-0.8767405784857545</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.36589086203093</v>
+        <v>-1.62432584126194</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2632854114159416</v>
+        <v>-0.1567932612557306</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2304110557801448</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.9006933833030042</v>
+        <v>-0.9050939609857415</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.383593809673542</v>
+        <v>-1.642470981395195</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.3093673582269643</v>
+        <v>-0.2150675223949471</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2612882880279735</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.014131920050699</v>
+        <v>-1.047873341809078</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.353180725048177</v>
+        <v>-1.611649249916408</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2620917966515456</v>
+        <v>-0.1880492562563616</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2908399177029984</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.055666298295888</v>
+        <v>-1.082937681515324</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.308156380690635</v>
+        <v>-1.549940525446423</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3745739777780992</v>
+        <v>-0.2580132570861314</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3195354951842027</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.085773202741526</v>
+        <v>-1.105231502091819</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.413536035536457</v>
+        <v>-1.618543793246368</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3391564940000162</v>
+        <v>-0.2542457770658586</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3475169666413332</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.291994702598165</v>
+        <v>-1.29360855270884</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.412892569222488</v>
+        <v>-1.638069183871104</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3652818362678426</v>
+        <v>-0.2816964769642584</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3751114533447016</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.477381312137091</v>
+        <v>-1.44570142226612</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.382566093333221</v>
+        <v>-1.589015093602288</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3433466490492754</v>
+        <v>-0.2705141912767596</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4021164707441958</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.454991734014346</v>
+        <v>-1.415185870967061</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.322871326937859</v>
+        <v>-1.543563194850346</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3872871643642357</v>
+        <v>-0.3146523208909863</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4282226472202438</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.624915634556355</v>
+        <v>-1.560900190086909</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.388223717530736</v>
+        <v>-1.580578060880832</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4016068820129267</v>
+        <v>-0.3398121587275204</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4530389297320738</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.775911256816165</v>
+        <v>-1.677046774639365</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.415943392447582</v>
+        <v>-1.594478763024597</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4050724512982091</v>
+        <v>-0.338278208225499</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.476135214843546</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.803107619792361</v>
+        <v>-1.70905785143781</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.456904445256628</v>
+        <v>-1.641706750787229</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4078244133916963</v>
+        <v>-0.3537531156359507</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4972448452112906</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.796812018566967</v>
+        <v>-1.701568025527344</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.502375251549549</v>
+        <v>-1.672787698553634</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4693160061007588</v>
+        <v>-0.4003864307387538</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5162577514965578</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.812227763671775</v>
+        <v>-1.715451039971484</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.56478050543238</v>
+        <v>-1.733657172172413</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4655021721090532</v>
+        <v>-0.4153111896987787</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5329236740032232</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.83514614302126</v>
+        <v>-1.748306856907225</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.555452988522873</v>
+        <v>-1.733252184843052</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4961177503990987</v>
+        <v>-0.4366395058439816</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5469489303683565</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.68362537905877</v>
+        <v>-1.622932782436247</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.727231657842872</v>
+        <v>-1.87346562937931</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4639322362871037</v>
+        <v>-0.3931009282549982</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5582198913380746</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.702901312126715</v>
+        <v>-1.670779229765102</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.63986296058142</v>
+        <v>-1.842378582406138</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4657034459323801</v>
+        <v>-0.4099432778227191</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5663459382999397</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.730189163204424</v>
+        <v>-1.715672441177143</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.721260534417509</v>
+        <v>-1.913926547233423</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4304311232753631</v>
+        <v>-0.3972325309192896</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5709535042011405</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.629913934502305</v>
+        <v>-1.636163791676943</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.908138400011083</v>
+        <v>-2.078389218035829</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4891164709507078</v>
+        <v>-0.4267642801667538</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5716316200254303</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.668085820056583</v>
+        <v>-1.682464700010918</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.926051770287174</v>
+        <v>-2.134953261597444</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5198479341693354</v>
+        <v>-0.4559069000224528</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5680658562949757</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.591740219185998</v>
+        <v>-1.614917814823101</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.024356345282719</v>
+        <v>-2.201771901497224</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5294438161766126</v>
+        <v>-0.4657589487139641</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5601178194553452</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.390759767704655</v>
+        <v>-1.465417108142001</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.114755128466256</v>
+        <v>-2.309540615633869</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5188793801346595</v>
+        <v>-0.465897400707586</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5480437926166138</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.27934311800038</v>
+        <v>-1.369510131326752</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.169958438998045</v>
+        <v>-2.329944292033121</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4953809662215871</v>
+        <v>-0.4407375628710518</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5321688666328784</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.147053762896433</v>
+        <v>-1.219464765481316</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.197502456759988</v>
+        <v>-2.351903266158082</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4133588336125082</v>
+        <v>-0.3646060441580057</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5130805373077012</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.9520047899964649</v>
+        <v>-1.035210778639112</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.255444311130376</v>
+        <v>-2.382598744056781</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4501864539952327</v>
+        <v>-0.3925288226602086</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4913064703254615</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.7331890380856548</v>
+        <v>-0.8287172541606427</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.200145243052337</v>
+        <v>-2.339179100999764</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.426076289643382</v>
+        <v>-0.3672341923541131</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4671595509757116</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5673583152053021</v>
+        <v>-0.6522409757883293</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.406857119133082</v>
+        <v>-2.504527376624809</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3389521705733056</v>
+        <v>-0.2898297691886938</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4415409907797102</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2454543804312121</v>
+        <v>-0.3312604609188359</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.416571325751648</v>
+        <v>-2.526685184890389</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3075266176245387</v>
+        <v>-0.2601681068370822</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4152550597697002</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1414823465011396</v>
+        <v>0.07076448371490927</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.449518630788901</v>
+        <v>-2.539880818731834</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2197742802574119</v>
+        <v>-0.1738405441708389</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3889575209978964</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3027953869288195</v>
+        <v>0.2258215677611843</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.471359280302573</v>
+        <v>-2.552558629918718</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1148221798059898</v>
+        <v>-0.08252627005150338</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3631668741876232</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5933975826515224</v>
+        <v>0.5144281030295677</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.371532953218542</v>
+        <v>-2.462728902726588</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.08419379318173256</v>
+        <v>-0.06130895946946869</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3382611558846366</v>
       </c>
       <c r="E85" t="n">
-        <v>0.750639402561909</v>
+        <v>0.6893966574889597</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.363843073326102</v>
+        <v>-2.438651064170605</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.01834004779256801</v>
+        <v>-0.01584303254196145</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3138534506863445</v>
       </c>
       <c r="E86" t="n">
-        <v>1.097165835056318</v>
+        <v>1.002897105178815</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.389079761167906</v>
+        <v>-2.485440518966655</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.03961347107686352</v>
+        <v>-0.014415818158371</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2896487910793085</v>
       </c>
       <c r="E87" t="n">
-        <v>1.282822639455043</v>
+        <v>1.181040906681357</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.324975268279655</v>
+        <v>-2.400376102021957</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04420731760794534</v>
+        <v>0.0571571534166601</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2650488899346376</v>
       </c>
       <c r="E88" t="n">
-        <v>1.498670517352797</v>
+        <v>1.397007719111077</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.251649994600327</v>
+        <v>-2.306650811467437</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0949697956923327</v>
+        <v>0.0807921895613241</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.239614124282728</v>
       </c>
       <c r="E89" t="n">
-        <v>1.507261250084794</v>
+        <v>1.442953043690508</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.037137233063974</v>
+        <v>-2.100769647348423</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1244838572401712</v>
+        <v>0.137830751409449</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2135357507714394</v>
       </c>
       <c r="E90" t="n">
-        <v>1.537722518443622</v>
+        <v>1.484390444548095</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.934317415298463</v>
+        <v>-1.943671158797072</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1152142827949542</v>
+        <v>0.1189238203509359</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1868989207793426</v>
       </c>
       <c r="E91" t="n">
-        <v>1.627443679755291</v>
+        <v>1.555721887535134</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.568255833448491</v>
+        <v>-1.591126029064513</v>
       </c>
       <c r="G91" t="n">
-        <v>0.130914250935126</v>
+        <v>0.1318358410776923</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1595015654001843</v>
       </c>
       <c r="E92" t="n">
-        <v>1.705614773211383</v>
+        <v>1.63310435355619</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.281471131241554</v>
+        <v>-1.312379471456439</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1365139326683499</v>
+        <v>0.1238904044216954</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1314987122681781</v>
       </c>
       <c r="E93" t="n">
-        <v>1.760567406345029</v>
+        <v>1.688706552210573</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.008504791887021</v>
+        <v>-1.043624024454174</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1702901199053039</v>
+        <v>0.1627813864538585</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1027688251997823</v>
       </c>
       <c r="E94" t="n">
-        <v>1.856157224408369</v>
+        <v>1.75507751033362</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7550431058542145</v>
+        <v>-0.7724264550622109</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1476913389904348</v>
+        <v>0.1537911556785922</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.07331121226255645</v>
       </c>
       <c r="E95" t="n">
-        <v>1.859753316718475</v>
+        <v>1.753633828091758</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5240801737452901</v>
+        <v>-0.5381784901883215</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1449887804717642</v>
+        <v>0.1238202635438693</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04312811202544804</v>
       </c>
       <c r="E96" t="n">
-        <v>1.852986856730632</v>
+        <v>1.706341798658067</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3219109868649649</v>
+        <v>-0.3369168652749974</v>
       </c>
       <c r="G96" t="n">
-        <v>0.06575825480016122</v>
+        <v>0.04114795549337708</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.01311698345742317</v>
       </c>
       <c r="E97" t="n">
-        <v>1.750920900921582</v>
+        <v>1.609323546369783</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1367299205941033</v>
+        <v>-0.1585784990765722</v>
       </c>
       <c r="G97" t="n">
-        <v>0.09499968180549336</v>
+        <v>0.05114150578189401</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.01548827366482221</v>
       </c>
       <c r="E98" t="n">
-        <v>1.681421049726818</v>
+        <v>1.540261618220924</v>
       </c>
       <c r="F98" t="n">
-        <v>0.002842497310892048</v>
+        <v>-0.02648309874783132</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0425873682905025</v>
+        <v>0.007366888891009142</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.04025568292498866</v>
       </c>
       <c r="E99" t="n">
-        <v>1.56803374631597</v>
+        <v>1.454970920705152</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1188853953483008</v>
+        <v>0.08588075776743315</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.008465432036016947</v>
+        <v>-0.03279455791082023</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.05930451796000945</v>
       </c>
       <c r="E100" t="n">
-        <v>1.379225481780488</v>
+        <v>1.257278551592158</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1739691614274482</v>
+        <v>0.140638826205197</v>
       </c>
       <c r="G100" t="n">
-        <v>0.04717458170032464</v>
+        <v>0.01091418754697585</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.07076584207432768</v>
       </c>
       <c r="E101" t="n">
-        <v>1.229253306416261</v>
+        <v>1.119470634204994</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2494584336678785</v>
+        <v>0.2034478475760353</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.08318376454103779</v>
+        <v>-0.1118951704782759</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.07317954864402154</v>
       </c>
       <c r="E102" t="n">
-        <v>1.01607017195522</v>
+        <v>0.9192477042041723</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2462709882111932</v>
+        <v>0.198527007556032</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.05918399583167845</v>
+        <v>-0.08576616868638906</v>
       </c>
     </row>
   </sheetData>
